--- a/kg.xlsx
+++ b/kg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,51 @@
           <t>m/min</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>V ry</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Power Factor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Curr_R</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>min/doff</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>doff min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>stop min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>kWh</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,13 +530,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>480.1</v>
+        <v>480.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,6 +547,15 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -513,13 +567,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>480.1</v>
+        <v>480.4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -530,6 +584,15 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -547,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>480.1</v>
+        <v>480.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -558,34 +621,50 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>479.8</v>
+        <v>390.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>25.61</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,23 +676,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E6" t="n">
-        <v>479.8</v>
+        <v>47.6</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>539.6799999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>25.7</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -625,51 +713,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E7" t="n">
-        <v>480</v>
+        <v>34.6</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>543.13</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>87.91</v>
+        <v>64.36</v>
       </c>
       <c r="D8" t="n">
         <v>0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>43.4</v>
+        <v>139.9</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>529.64</v>
+        <v>386.52</v>
       </c>
       <c r="H8" t="n">
-        <v>25.23</v>
-      </c>
+        <v>25.13</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -681,49 +785,69 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.15000000000001</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>0.2</v>
       </c>
       <c r="E9" t="n">
-        <v>50.1</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>478.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="G9" t="n">
-        <v>529.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>83.33</v>
       </c>
       <c r="D10" t="n">
-        <v>1.35</v>
+        <v>0.16</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9</v>
+        <v>58.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0.66</v>
+        <v>589.26</v>
       </c>
       <c r="H10" t="n">
-        <v>24.35</v>
-      </c>
+        <v>25.17</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -735,23 +859,32 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.27</v>
+        <v>79.34</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E11" t="n">
-        <v>473</v>
+        <v>42.7</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>9.85</v>
+        <v>608.5599999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>26.48</v>
-      </c>
+        <v>26.36</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -763,23 +896,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>86.90000000000001</v>
+        <v>80.78</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E12" t="n">
-        <v>47.8</v>
+        <v>49.6</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>639</v>
+        <v>599.9400000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>25.41</v>
-      </c>
+        <v>25.47</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -791,23 +933,32 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.87</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E13" t="n">
-        <v>475.4</v>
+        <v>52.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>5.55</v>
+        <v>508.75</v>
       </c>
       <c r="H13" t="n">
-        <v>25.62</v>
-      </c>
+        <v>25.64</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -819,23 +970,32 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.73999999999999</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>0.08</v>
       </c>
       <c r="E14" t="n">
-        <v>93.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>1151.52</v>
+        <v>1128.74</v>
       </c>
       <c r="H14" t="n">
-        <v>31.21</v>
-      </c>
+        <v>31.27</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -847,23 +1007,32 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>83.42</v>
+        <v>75.75</v>
       </c>
       <c r="D15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>77.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>1175.52</v>
+        <v>1108.88</v>
       </c>
       <c r="H15" t="n">
-        <v>30.8</v>
-      </c>
+        <v>30.77</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -875,23 +1044,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>86.27</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
       </c>
       <c r="E16" t="n">
-        <v>62.9</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>1257.68</v>
+        <v>1094.26</v>
       </c>
       <c r="H16" t="n">
-        <v>31.42</v>
-      </c>
+        <v>31.17</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -899,113 +1077,149 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22.0 lbs-22/1 CRT</t>
+          <t>26.0 lbs-26/1 LBS CRT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>81.56999999999999</v>
+        <v>79.41</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5</v>
+        <v>75.3</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>134.65</v>
+        <v>1165.56</v>
       </c>
       <c r="H17" t="n">
-        <v>30.98</v>
-      </c>
+        <v>30.88</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>26.0 lbs-26/1 LBS CRT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82.37</v>
+        <v>79.89</v>
       </c>
       <c r="D18" t="n">
         <v>0.08</v>
       </c>
       <c r="E18" t="n">
-        <v>59.2</v>
+        <v>77.7</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>1050.92</v>
+        <v>1172.89</v>
       </c>
       <c r="H18" t="n">
-        <v>31.05</v>
-      </c>
+        <v>31.01</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
+          <t>22.0 lbs-22/1 CRT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>39.37</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>289.4</v>
+        <v>479.5</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>558.34</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22.0 lbs-22/1 CRT</t>
+          <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41.15</v>
+        <v>87.58</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E20" t="n">
-        <v>279.5</v>
+        <v>46.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>463.34</v>
+        <v>634.85</v>
       </c>
       <c r="H20" t="n">
-        <v>28.83</v>
-      </c>
+        <v>24.88</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1013,55 +1227,71 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>88.13</v>
+        <v>83.36</v>
       </c>
       <c r="D21" t="n">
         <v>0.14</v>
       </c>
       <c r="E21" t="n">
-        <v>48.9</v>
+        <v>53.2</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>641.3099999999999</v>
+        <v>604.4</v>
       </c>
       <c r="H21" t="n">
-        <v>24.93</v>
-      </c>
+        <v>24.77</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>89.40000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="D22" t="n">
-        <v>0.14</v>
+        <v>0.58</v>
       </c>
       <c r="E22" t="n">
-        <v>38.5</v>
+        <v>447.1</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>645.99</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
-        <v>24.74</v>
-      </c>
+        <v>24.89</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1069,27 +1299,36 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>88.95999999999999</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="D23" t="n">
         <v>0.14</v>
       </c>
       <c r="E23" t="n">
-        <v>41.7</v>
+        <v>45.4</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>635.92</v>
+        <v>615.11</v>
       </c>
       <c r="H23" t="n">
-        <v>24.88</v>
-      </c>
+        <v>24.87</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1097,27 +1336,36 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>89.3</v>
+        <v>77.59</v>
       </c>
       <c r="D24" t="n">
         <v>0.14</v>
       </c>
       <c r="E24" t="n">
-        <v>40.8</v>
+        <v>46.2</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>639.23</v>
+        <v>569.3099999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>24.85</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1125,27 +1373,36 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.49</v>
+        <v>79.92</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E25" t="n">
-        <v>472.3</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>10.52</v>
+        <v>578.76</v>
       </c>
       <c r="H25" t="n">
-        <v>25.21</v>
-      </c>
+        <v>24.88</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1153,27 +1410,36 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4</v>
+        <v>82.75</v>
       </c>
       <c r="D26" t="n">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="E26" t="n">
-        <v>457.1</v>
+        <v>36.2</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>2.82</v>
+        <v>607.0700000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>23.95</v>
-      </c>
+        <v>25.24</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1181,27 +1447,36 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.74</v>
+        <v>83.44</v>
       </c>
       <c r="D27" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E27" t="n">
-        <v>471</v>
+        <v>38.8</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>12.44</v>
+        <v>609.67</v>
       </c>
       <c r="H27" t="n">
-        <v>24.36</v>
-      </c>
+        <v>25.04</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1209,27 +1484,36 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5600000000000001</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E28" t="n">
-        <v>477.1</v>
+        <v>52.2</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>4.05</v>
+        <v>593.7</v>
       </c>
       <c r="H28" t="n">
-        <v>24.56</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1237,27 +1521,36 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.47</v>
+        <v>52.6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E29" t="n">
-        <v>477.2</v>
+        <v>168.6</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>3.42</v>
+        <v>392.51</v>
       </c>
       <c r="H29" t="n">
-        <v>24.63</v>
-      </c>
+        <v>25.57</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1265,27 +1558,36 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.48</v>
+        <v>76.47</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="E30" t="n">
-        <v>476.7</v>
+        <v>47.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>3.55</v>
+        <v>574.51</v>
       </c>
       <c r="H30" t="n">
-        <v>25.06</v>
-      </c>
+        <v>26.24</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1293,31 +1595,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.59</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E31" t="n">
-        <v>479.7</v>
+        <v>85</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>598.8200000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>26.37</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16.0 lbs-16/1 CRT</t>
+          <t>8.0 lbs-8/1 lbs CRX</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1327,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>479.9</v>
+        <v>478.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1338,10 +1649,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1355,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>480</v>
+        <v>478.7</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1366,24 +1686,33 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8.0 lbs-8/1 lbs CRX</t>
+          <t>8.0 lbs-8/1 lbs CRT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>479.8</v>
+        <v>480.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1394,14 +1723,23 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8.0 lbs-8/1 lbs CRT</t>
+          <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1411,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>480.5</v>
+        <v>480.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1422,10 +1760,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1439,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>480.5</v>
+        <v>480.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1450,10 +1797,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1461,27 +1817,36 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.03</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
       <c r="E37" t="n">
-        <v>480.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>469.25</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>25.76</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1489,53 +1854,73 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E38" t="n">
-        <v>478.8</v>
+        <v>65.2</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>510.34</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>25.78</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.14</v>
+        <v>84.16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="E39" t="n">
-        <v>475.4</v>
+        <v>62.6</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>0.79</v>
+        <v>503.52</v>
       </c>
       <c r="H39" t="n">
-        <v>22.94</v>
-      </c>
+        <v>25.02</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1543,109 +1928,145 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.85</v>
+        <v>80.12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="E40" t="n">
-        <v>474.3</v>
+        <v>80.2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>4.99</v>
+        <v>485.1</v>
       </c>
       <c r="H40" t="n">
-        <v>24.54</v>
-      </c>
+        <v>25.27</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>79.14</v>
+        <v>71.69</v>
       </c>
       <c r="D41" t="n">
         <v>0.19</v>
       </c>
       <c r="E41" t="n">
-        <v>80.3</v>
+        <v>113.3</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>478.88</v>
+        <v>432.86</v>
       </c>
       <c r="H41" t="n">
-        <v>25.3</v>
-      </c>
+        <v>25.55</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
+          <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>76.44</v>
+        <v>85.19</v>
       </c>
       <c r="D42" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="E42" t="n">
-        <v>92.5</v>
+        <v>61.1</v>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>465.75</v>
+        <v>632.14</v>
       </c>
       <c r="H42" t="n">
-        <v>25.48</v>
-      </c>
+        <v>25.46</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>80.19</v>
+        <v>84.13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E43" t="n">
-        <v>83.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G43" t="n">
-        <v>576.4299999999999</v>
+        <v>646.39</v>
       </c>
       <c r="H43" t="n">
-        <v>24.55</v>
-      </c>
+        <v>26.36</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1653,27 +2074,36 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>78.25</v>
+        <v>83.72</v>
       </c>
       <c r="D44" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="E44" t="n">
-        <v>79.7</v>
+        <v>65.7</v>
       </c>
       <c r="F44" t="n">
         <v>12</v>
       </c>
       <c r="G44" t="n">
-        <v>602.63</v>
+        <v>615.72</v>
       </c>
       <c r="H44" t="n">
-        <v>26.36</v>
-      </c>
+        <v>25.39</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1681,55 +2111,73 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>79.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>77.3</v>
+        <v>479.6</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>587.27</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>25.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16.0 lbs-16/1 CRT</t>
+          <t>26.0 lbs-26/1 LBS CRT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>79.73999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="D46" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="E46" t="n">
-        <v>70.09999999999999</v>
+        <v>115.7</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>597.95</v>
+        <v>1066.36</v>
       </c>
       <c r="H46" t="n">
-        <v>25.63</v>
-      </c>
+        <v>31.21</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1737,27 +2185,36 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>75.11</v>
+        <v>75.2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>96.90000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="F47" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G47" t="n">
-        <v>1109.88</v>
+        <v>1089.6</v>
       </c>
       <c r="H47" t="n">
-        <v>31.24</v>
-      </c>
+        <v>30.78</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1765,27 +2222,36 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>77.02</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="D48" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>92.3</v>
+        <v>103.7</v>
       </c>
       <c r="F48" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G48" t="n">
-        <v>1124.93</v>
+        <v>1106.9</v>
       </c>
       <c r="H48" t="n">
-        <v>30.83</v>
-      </c>
+        <v>31.22</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1793,27 +2259,36 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>73.52</v>
+        <v>68.06</v>
       </c>
       <c r="D49" t="n">
         <v>0.08</v>
       </c>
       <c r="E49" t="n">
-        <v>104</v>
+        <v>102.4</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>1091.54</v>
+        <v>999.9299999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>31.4</v>
-      </c>
+        <v>31.03</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1821,81 +2296,110 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>71.47</v>
+        <v>71.56</v>
       </c>
       <c r="D50" t="n">
         <v>0.08</v>
       </c>
       <c r="E50" t="n">
-        <v>104.5</v>
+        <v>100.1</v>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>1053.61</v>
+        <v>1033.55</v>
       </c>
       <c r="H50" t="n">
-        <v>31.08</v>
-      </c>
+        <v>30.98</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
+          <t>22.0 lbs-22/1 CRT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>61.68</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>144.1</v>
+        <v>479.1</v>
       </c>
       <c r="F51" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>901.77</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>30.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="n">
+        <v>19</v>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22.0 lbs-22/1 CRT</t>
+          <t>16.0 lbs-16/1 CRT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12.91</v>
+        <v>83.55</v>
       </c>
       <c r="D52" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E52" t="n">
-        <v>348.5</v>
+        <v>63.1</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>150.93</v>
+        <v>599.6799999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>29.15</v>
-      </c>
+        <v>24.92</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,27 +2407,36 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>85.06</v>
+        <v>75.12</v>
       </c>
       <c r="D53" t="n">
         <v>0.14</v>
       </c>
       <c r="E53" t="n">
-        <v>63.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>616.77</v>
+        <v>545.0700000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>24.89</v>
-      </c>
+        <v>24.81</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1931,27 +2444,36 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>81.5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>68.59999999999999</v>
+        <v>471.1</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>589.29</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>24.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1959,27 +2481,36 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>79.44</v>
+        <v>84.06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E55" t="n">
-        <v>79.7</v>
+        <v>63</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
       </c>
       <c r="G55" t="n">
-        <v>575.39</v>
+        <v>610.92</v>
       </c>
       <c r="H55" t="n">
-        <v>24.92</v>
-      </c>
+        <v>24.87</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1987,27 +2518,36 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>78.05</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="D56" t="n">
         <v>0.14</v>
       </c>
       <c r="E56" t="n">
-        <v>73.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>567.04</v>
+        <v>579.5599999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>24.85</v>
-      </c>
+        <v>25.1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2015,27 +2555,36 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>83.70999999999999</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E57" t="n">
-        <v>66</v>
+        <v>63.2</v>
       </c>
       <c r="F57" t="n">
         <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>614.02</v>
+        <v>597.9</v>
       </c>
       <c r="H57" t="n">
-        <v>25.11</v>
-      </c>
+        <v>24.89</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2043,27 +2592,36 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>75.56999999999999</v>
+        <v>81.77</v>
       </c>
       <c r="D58" t="n">
         <v>0.14</v>
       </c>
       <c r="E58" t="n">
-        <v>109.7</v>
+        <v>68</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>539.26</v>
+        <v>599.1900000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>24.84</v>
-      </c>
+        <v>25.11</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2071,27 +2629,36 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>83.89</v>
+        <v>83.19</v>
       </c>
       <c r="D59" t="n">
         <v>0.14</v>
       </c>
       <c r="E59" t="n">
-        <v>66.7</v>
+        <v>72.8</v>
       </c>
       <c r="F59" t="n">
         <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>612.1900000000001</v>
+        <v>605.89</v>
       </c>
       <c r="H59" t="n">
-        <v>25.04</v>
-      </c>
+        <v>25.02</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2099,27 +2666,36 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>80.5</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D60" t="n">
         <v>0.15</v>
       </c>
       <c r="E60" t="n">
-        <v>79.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>585.47</v>
+        <v>567.72</v>
       </c>
       <c r="H60" t="n">
-        <v>25.05</v>
-      </c>
+        <v>25.36</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2127,27 +2703,36 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>76.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>70.8</v>
+        <v>478.7</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>563.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>25.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2155,27 +2740,36 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>72.04000000000001</v>
+        <v>75.72</v>
       </c>
       <c r="D62" t="n">
         <v>0.16</v>
       </c>
       <c r="E62" t="n">
-        <v>75.7</v>
+        <v>83.3</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>536.66</v>
+        <v>575.45</v>
       </c>
       <c r="H62" t="n">
-        <v>25.54</v>
-      </c>
+        <v>26.23</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2183,55 +2777,73 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>73.08</v>
+        <v>83.81</v>
       </c>
       <c r="D63" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E63" t="n">
-        <v>78.90000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>559.91</v>
+        <v>646.88</v>
       </c>
       <c r="H63" t="n">
-        <v>26.22</v>
-      </c>
+        <v>26.42</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16.0 lbs-16/1 CRT</t>
+          <t>8.0 lbs-8/1 lbs CRX</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>80.63</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>62.6</v>
+        <v>478.7</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>623.54</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>26.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2245,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>478.7</v>
+        <v>478.4</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2256,926 +2868,15 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>32</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>8.0 lbs-8/1 lbs CRX</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>8.0 lbs-8/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>480.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E71" t="n">
-        <v>371.7</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3</v>
-      </c>
-      <c r="G71" t="n">
-        <v>117.41</v>
-      </c>
-      <c r="H71" t="n">
-        <v>25.94</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>71.95</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>8</v>
-      </c>
-      <c r="G72" t="n">
-        <v>428.94</v>
-      </c>
-      <c r="H72" t="n">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>86.34999999999999</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9</v>
-      </c>
-      <c r="G73" t="n">
-        <v>519.4299999999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>25.22</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>8</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>87.06</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E74" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11</v>
-      </c>
-      <c r="G74" t="n">
-        <v>529.9</v>
-      </c>
-      <c r="H74" t="n">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>9</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>80.47</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E75" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>11</v>
-      </c>
-      <c r="G75" t="n">
-        <v>590.7</v>
-      </c>
-      <c r="H75" t="n">
-        <v>25.07</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>10</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>89.52</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E76" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F76" t="n">
-        <v>13</v>
-      </c>
-      <c r="G76" t="n">
-        <v>691.24</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26.38</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>11</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>88.14</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E77" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12</v>
-      </c>
-      <c r="G77" t="n">
-        <v>650.4400000000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>25.43</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>12</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>85.93000000000001</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E78" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>12</v>
-      </c>
-      <c r="G78" t="n">
-        <v>642.38</v>
-      </c>
-      <c r="H78" t="n">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>13</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E79" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>22</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1013</v>
-      </c>
-      <c r="H79" t="n">
-        <v>31.14</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>14</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>81.23</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E80" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>20</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1187.81</v>
-      </c>
-      <c r="H80" t="n">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>15</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>84.87</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E81" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1258.3</v>
-      </c>
-      <c r="H81" t="n">
-        <v>31.28</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>16</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>86.41</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E82" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="F82" t="n">
-        <v>25</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1202.04</v>
-      </c>
-      <c r="H82" t="n">
-        <v>30.91</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>17</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>26.0 lbs-26/1 LBS CRT</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E83" t="n">
-        <v>467.1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" t="n">
-        <v>24.59</v>
-      </c>
-      <c r="H83" t="n">
-        <v>29.95</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>18</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>22.0 lbs-22/1 CRT</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>19</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>88.97</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E85" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>13</v>
-      </c>
-      <c r="G85" t="n">
-        <v>648.7</v>
-      </c>
-      <c r="H85" t="n">
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>20</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>87.69</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>13</v>
-      </c>
-      <c r="G86" t="n">
-        <v>635.49</v>
-      </c>
-      <c r="H86" t="n">
-        <v>24.82</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>21</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>94.31999999999999</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E87" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>12</v>
-      </c>
-      <c r="G87" t="n">
-        <v>658.21</v>
-      </c>
-      <c r="H87" t="n">
-        <v>24.87</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>22</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>91.61</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E88" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F88" t="n">
-        <v>14</v>
-      </c>
-      <c r="G88" t="n">
-        <v>666.24</v>
-      </c>
-      <c r="H88" t="n">
-        <v>24.87</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>23</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E89" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>13</v>
-      </c>
-      <c r="G89" t="n">
-        <v>623.38</v>
-      </c>
-      <c r="H89" t="n">
-        <v>25.11</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>24</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>92.20999999999999</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E90" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>13</v>
-      </c>
-      <c r="G90" t="n">
-        <v>665.0599999999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>25</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>87.67</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E91" t="n">
-        <v>42</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13</v>
-      </c>
-      <c r="G91" t="n">
-        <v>646.73</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25.31</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>26</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>91.47</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E92" t="n">
-        <v>34</v>
-      </c>
-      <c r="F92" t="n">
-        <v>14</v>
-      </c>
-      <c r="G92" t="n">
-        <v>662.95</v>
-      </c>
-      <c r="H92" t="n">
-        <v>25.09</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>27</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>87.03</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E93" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>12</v>
-      </c>
-      <c r="G93" t="n">
-        <v>633.37</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>28</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>84.55</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E94" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>12</v>
-      </c>
-      <c r="G94" t="n">
-        <v>629.16</v>
-      </c>
-      <c r="H94" t="n">
-        <v>25.52</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>29</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E95" t="n">
-        <v>461.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="H95" t="n">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>30</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E96" t="n">
-        <v>461.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="H96" t="n">
-        <v>26.16</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>31</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>8.0 lbs-8/1 lbs CRX</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>478.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>32</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>8.0 lbs-8/1 lbs CRX</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
